--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -70,6 +70,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2454,16 +2457,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="6" t="n">
         <v>5276.07</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="6" t="n">
         <v>2983.47</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="6" t="n">
         <v>1352.8</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>2756</v>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>342.14</v>
+        <v>5354.86</v>
       </c>
     </row>
     <row r="18">
@@ -2467,7 +2467,7 @@
         <v>1352.8</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2756</v>
+        <v>7768.719999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>2266.66</v>
       </c>
     </row>
     <row r="14">
@@ -2467,7 +2467,7 @@
         <v>1352.8</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7768.719999999999</v>
+        <v>10035.38</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2266.66</v>
+        <v>3122.02</v>
       </c>
     </row>
     <row r="14">
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5354.86</v>
+        <v>6725.74</v>
       </c>
     </row>
     <row r="18">
@@ -2467,7 +2467,7 @@
         <v>1352.8</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10035.38</v>
+        <v>12261.62</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>91.58</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>921.02</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>113.4</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1359,14 +1359,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>91.58</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0</v>
+        <v>921.02</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>113.4</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1695,105 +1695,153 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>1 de 25</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
-        </is>
-      </c>
-      <c r="G27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
-        </is>
-      </c>
-      <c r="H27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
-        </is>
-      </c>
-      <c r="I27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
-        </is>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
-        </is>
-      </c>
-      <c r="K27" s="4" t="inlineStr">
-        <is>
-          <t>1 de 25</t>
-        </is>
-      </c>
-      <c r="L27" s="4" t="inlineStr">
-        <is>
-          <t>2 de 25</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
-        </is>
-      </c>
-      <c r="N27" s="4" t="inlineStr">
-        <is>
-          <t>0 de 25</t>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>1 de 26</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t>1 de 26</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t>2 de 26</t>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr">
+        <is>
+          <t>0 de 26</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2056,7 +2104,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -2080,7 +2128,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -2104,7 +2152,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -2128,20 +2176,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1444.13</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3122.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2152,20 +2200,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>1444.13</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>3122.02</v>
       </c>
     </row>
     <row r="15">
@@ -2176,7 +2224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -2186,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2248,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -2210,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -2224,7 +2272,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -2237,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6725.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2248,20 +2296,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>683.0700000000001</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>800.79</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>6725.74</v>
       </c>
     </row>
     <row r="19">
@@ -2272,17 +2320,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>683.0700000000001</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>800.79</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -2296,20 +2344,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1914.22</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>738.55</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1994.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2320,20 +2368,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>1914.22</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>738.55</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>1994.73</v>
       </c>
     </row>
     <row r="22">
@@ -2344,7 +2392,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -2368,7 +2416,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -2392,7 +2440,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -2416,11 +2464,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1739.16</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
@@ -2440,33 +2488,57 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1739.16</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="6" t="n">
         <v>5276.07</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D28" s="6" t="n">
         <v>2983.47</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E28" s="6" t="n">
         <v>1352.8</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F28" s="6" t="n">
         <v>12261.62</v>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1743,105 +1743,153 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>1 de 26</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
-        </is>
-      </c>
-      <c r="G28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
-        </is>
-      </c>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
-        </is>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
-        </is>
-      </c>
-      <c r="K28" s="4" t="inlineStr">
-        <is>
-          <t>1 de 26</t>
-        </is>
-      </c>
-      <c r="L28" s="4" t="inlineStr">
-        <is>
-          <t>2 de 26</t>
-        </is>
-      </c>
-      <c r="M28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
-        </is>
-      </c>
-      <c r="N28" s="4" t="inlineStr">
-        <is>
-          <t>0 de 26</t>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>2 de 27</t>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2392,7 +2440,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -2416,7 +2464,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -2440,7 +2488,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -2464,7 +2512,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -2488,11 +2536,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1739.16</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -2512,33 +2560,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1739.16</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="6" t="n">
         <v>5276.07</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D29" s="6" t="n">
         <v>2983.47</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E29" s="6" t="n">
         <v>1352.8</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F29" s="6" t="n">
         <v>12261.62</v>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>419.13</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>855.36</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>2266.66</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>6725.74</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>91.58</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>921.02</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>113.4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>513.22</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>423.14</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0</v>
+        <v>1058.37</v>
       </c>
     </row>
     <row r="22">
@@ -1834,62 +1834,62 @@
     <row r="29">
       <c r="C29" s="4" t="inlineStr">
         <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>2 de 27</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>2 de 27</t>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>1 de 27</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="G29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>1 de 27</t>
-        </is>
-      </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>2 de 27</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="N29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
         </is>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>419.13</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>855.36</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2266.66</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>6725.74</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>513.22</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>423.14</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1058.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +1834,7 @@
     <row r="29">
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
@@ -1874,22 +1874,22 @@
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>2 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>2 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
     </row>
@@ -1915,9 +1915,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="49" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>febrero</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>939.62</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -2018,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>419.13</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>419.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2252,16 +2252,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>1444.13</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1444.13</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>3122.02</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3122.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>6725.74</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6725.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2372,13 +2372,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>683.0700000000001</v>
+        <v>800.79</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>800.79</v>
+        <v>1126</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -2420,16 +2420,16 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1914.22</v>
+        <v>738.55</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>738.55</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>1994.73</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1994.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>1739.16</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
     </row>
     <row r="29">
       <c r="C29" s="6" t="n">
-        <v>5276.07</v>
+        <v>2983.47</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>2983.47</v>
+        <v>1352.8</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>1352.8</v>
+        <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>12261.62</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1904,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,6 +1918,7 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1951,6 +1952,11 @@
           <t>junio</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1975,6 +1981,9 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1999,6 +2008,9 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2023,6 +2035,9 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2047,6 +2062,9 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2071,6 +2089,9 @@
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2095,6 +2116,9 @@
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2119,6 +2143,9 @@
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2143,6 +2170,9 @@
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2167,6 +2197,9 @@
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2191,6 +2224,9 @@
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2215,6 +2251,9 @@
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2239,6 +2278,9 @@
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2263,6 +2305,9 @@
       <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2287,6 +2332,9 @@
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2311,6 +2359,9 @@
       <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2335,6 +2386,9 @@
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2359,6 +2413,9 @@
       <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2383,6 +2440,9 @@
       <c r="F19" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2407,6 +2467,9 @@
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2431,6 +2494,9 @@
       <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2455,6 +2521,9 @@
       <c r="F22" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2479,6 +2548,9 @@
       <c r="F23" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2503,6 +2575,9 @@
       <c r="F24" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2527,6 +2602,9 @@
       <c r="F25" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G25" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2551,6 +2629,9 @@
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2575,6 +2656,9 @@
       <c r="F27" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2597,6 +2681,9 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2611,6 +2698,9 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1904,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1952,11 +1951,6 @@
           <t>junio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRESUPUESTO</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1981,9 +1975,6 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2008,9 +1999,6 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2035,9 +2023,6 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2062,9 +2047,6 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2089,9 +2071,6 @@
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2116,9 +2095,6 @@
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2143,9 +2119,6 @@
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2170,9 +2143,6 @@
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2197,9 +2167,6 @@
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2224,9 +2191,6 @@
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2251,9 +2215,6 @@
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2278,9 +2239,6 @@
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2305,9 +2263,6 @@
       <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2332,9 +2287,6 @@
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2359,9 +2311,6 @@
       <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2386,9 +2335,6 @@
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2413,9 +2359,6 @@
       <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2440,9 +2383,6 @@
       <c r="F19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2467,9 +2407,6 @@
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2494,9 +2431,6 @@
       <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2521,9 +2455,6 @@
       <c r="F22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2548,9 +2479,6 @@
       <c r="F23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2575,9 +2503,6 @@
       <c r="F24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2602,9 +2527,6 @@
       <c r="F25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2629,9 +2551,6 @@
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2656,9 +2575,6 @@
       <c r="F27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2681,9 +2597,6 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2698,9 +2611,6 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13">
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15">
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18">
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="19">
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22">
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0</v>
+        <v>20500</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VENTA MENSUAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CUMPLIMIENTO MENSUAL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -72,6 +73,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2707,4 +2711,490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASESOR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POR CUMPLIR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CUMPLIMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240X120 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>344.284604629486</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>344.284604629486</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240X80 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3120.1145</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>3120.1145</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FREGADEROS DE COCINA</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>250.631825420901</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>250.631825420901</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GRIFERIAS</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INODOROS</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>560</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>560</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAVABOS</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>650.25</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>650.25</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PANELES DECORATIVOS</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PIEDRA SINTERIZADA</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>13061.58</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>13061.58</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PUERTAS DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>23500.00093005039</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>23500.00093005039</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0</v>
+        <v>2116.73</v>
       </c>
     </row>
     <row r="22">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2496,7 +2496,7 @@
         <v>1994.73</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>2116.73</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>2000</v>
@@ -2702,7 +2702,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0</v>
+        <v>2116.73</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -2730,9 +2730,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2830,13 +2830,13 @@
         <v>250.631825420901</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>560.03</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>250.631825420901</v>
+        <v>-309.398174579099</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>2.234472813097491</v>
       </c>
     </row>
     <row r="5">
@@ -3118,13 +3118,13 @@
         <v>13061.58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>2695.68</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>13061.58</v>
+        <v>10365.9</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0</v>
+        <v>0.2063823825295255</v>
       </c>
     </row>
     <row r="17">
@@ -3166,13 +3166,13 @@
         <v>1200</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>2116.73</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1200</v>
+        <v>-916.73</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0</v>
+        <v>1.763941666666667</v>
       </c>
     </row>
     <row r="19">
@@ -3185,13 +3185,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>5372.440000000001</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>23500.00093005039</v>
+        <v>18127.56093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0</v>
+        <v>0.2286144590373206</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>91.58</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>647.08</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>738.66</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>1000</v>
@@ -2702,7 +2702,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>2116.73</v>
+        <v>2855.39</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -2731,8 +2731,8 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2806,13 +2806,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>91.58</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3120.1145</v>
+        <v>3028.5345</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>0.02935148694062349</v>
       </c>
     </row>
     <row r="4">
@@ -2830,13 +2830,13 @@
         <v>250.631825420901</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>560.03</v>
+        <v>1207.11</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-309.398174579099</v>
+        <v>-956.4781745790989</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>2.234472813097491</v>
+        <v>4.81626783818387</v>
       </c>
     </row>
     <row r="5">
@@ -3185,13 +3185,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>5372.440000000001</v>
+        <v>6111.1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>18127.56093005039</v>
+        <v>17388.90093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.2286144590373206</v>
+        <v>0.260046798218867</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>183.17</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>2 de 27</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>183.17</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1000</v>
@@ -2702,7 +2702,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>2855.39</v>
+        <v>3038.56</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -2806,13 +2806,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>91.58</v>
+        <v>274.75</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3028.5345</v>
+        <v>2845.3645</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.02935148694062349</v>
+        <v>0.08805766583245582</v>
       </c>
     </row>
     <row r="4">
@@ -3185,13 +3185,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6111.1</v>
+        <v>6294.27</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>17388.90093005039</v>
+        <v>17205.73093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.260046798218867</v>
+        <v>0.2678412659954948</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3118,13 +3118,13 @@
         <v>13061.58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2695.68</v>
+        <v>2678.83</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10365.9</v>
+        <v>10382.75</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.2063823825295255</v>
+        <v>0.2050923395178837</v>
       </c>
     </row>
     <row r="17">
@@ -3185,13 +3185,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6294.27</v>
+        <v>6277.42</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>17205.73093005039</v>
+        <v>17222.58093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.2678412659954948</v>
+        <v>0.2671242447472763</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2732,7 +2732,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2806,13 +2806,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>274.75</v>
+        <v>1778.11</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2845.3645</v>
+        <v>1342.0045</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.08805766583245582</v>
+        <v>0.5698861371914395</v>
       </c>
     </row>
     <row r="4">
@@ -3094,13 +3094,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>1753.96</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1638</v>
+        <v>-115.96</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0</v>
+        <v>1.070793650793651</v>
       </c>
     </row>
     <row r="16">
@@ -3185,13 +3185,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6277.42</v>
+        <v>9534.74</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>17222.58093005039</v>
+        <v>13965.26093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.2671242447472763</v>
+        <v>0.4057336009637152</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2806,13 +2806,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1778.11</v>
+        <v>1869.69</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1342.0045</v>
+        <v>1250.4245</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.5698861371914395</v>
+        <v>0.5992376241320631</v>
       </c>
     </row>
     <row r="4">
@@ -3185,13 +3185,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>9534.74</v>
+        <v>9626.32</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>13965.26093005039</v>
+        <v>13873.68093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4057336009637152</v>
+        <v>0.40963062208608</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,19 @@
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="17" max="17"/>
+    <col width="16" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -495,47 +499,67 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRIFERIAS</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>INODOROS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>LAVABOS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LED</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PANELES DECORATIVOS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PIEDRA SINTERIZADA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PORCELANATO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>PUERTAS DE SEGURIDAD</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
         </is>
       </c>
     </row>
@@ -586,6 +610,18 @@
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -634,6 +670,18 @@
       <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -682,6 +730,18 @@
       <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -730,6 +790,18 @@
       <c r="N5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -778,6 +850,18 @@
       <c r="N6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -826,6 +910,18 @@
       <c r="N7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -874,6 +970,18 @@
       <c r="N8" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -922,6 +1030,18 @@
       <c r="N9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -970,6 +1090,18 @@
       <c r="N10" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1018,6 +1150,18 @@
       <c r="N11" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1066,6 +1210,18 @@
       <c r="N12" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1114,6 +1270,18 @@
       <c r="N13" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1162,6 +1330,18 @@
       <c r="N14" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1210,6 +1390,18 @@
       <c r="N15" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1258,6 +1450,18 @@
       <c r="N16" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1306,6 +1510,18 @@
       <c r="N17" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1354,6 +1570,18 @@
       <c r="N18" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1402,6 +1630,18 @@
       <c r="N19" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1450,6 +1690,18 @@
       <c r="N20" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1496,7 +1748,19 @@
         <v>0</v>
       </c>
       <c r="N21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="n">
         <v>2116.73</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1546,6 +1810,18 @@
       <c r="N22" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1594,6 +1870,18 @@
       <c r="N23" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1642,6 +1930,18 @@
       <c r="N24" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1690,6 +1990,18 @@
       <c r="N25" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1738,6 +2050,18 @@
       <c r="N26" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1786,6 +2110,18 @@
       <c r="N27" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1834,6 +2170,18 @@
       <c r="N28" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="C29" s="4" t="inlineStr">
@@ -1893,7 +2241,27 @@
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="O29" s="4" t="inlineStr">
+        <is>
           <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="P29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="Q29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="R29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
         </is>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0</v>
+        <v>1108.6</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -2864,7 +2864,7 @@
         <v>1994.73</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2116.73</v>
+        <v>3225.33</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>2000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>3038.56</v>
+        <v>4147.16</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1753.96</v>
+        <v>2862.56</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-115.96</v>
+        <v>-1224.56</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>1.070793650793651</v>
+        <v>1.747594627594627</v>
       </c>
     </row>
     <row r="16">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>9626.32</v>
+        <v>10734.92</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>13873.68093005039</v>
+        <v>12765.08093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.40963062208608</v>
+        <v>0.4568050883041809</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>475.2</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>648.5700000000001</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>0</v>
@@ -2186,57 +2186,57 @@
     <row r="29">
       <c r="C29" s="4" t="inlineStr">
         <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>3 de 27</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>2 de 27</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t>1 de 27</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="G29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>1 de 27</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>1771.77</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>3000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>4147.16</v>
+        <v>5918.93</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -3150,13 +3150,13 @@
         <v>344.284604629486</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>344.284604629486</v>
+        <v>-303.715395370514</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0</v>
+        <v>1.882163742690057</v>
       </c>
     </row>
     <row r="3">
@@ -3174,13 +3174,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1869.69</v>
+        <v>2344.89</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1250.4245</v>
+        <v>775.2245000000003</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.5992376241320631</v>
+        <v>0.7515397271478338</v>
       </c>
     </row>
     <row r="4">
@@ -3486,13 +3486,13 @@
         <v>13061.58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2678.83</v>
+        <v>3327.4</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10382.75</v>
+        <v>9734.18</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.2050923395178837</v>
+        <v>0.2547471286015934</v>
       </c>
     </row>
     <row r="17">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>10734.92</v>
+        <v>12506.69</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>12765.08093005039</v>
+        <v>10993.31093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4568050883041809</v>
+        <v>0.5321995534054297</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0</v>
+        <v>36.63</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>36.55</v>
       </c>
       <c r="J17" s="2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>648.5700000000001</v>
+        <v>774.7</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>0</v>
@@ -2206,17 +2206,17 @@
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1771.77</v>
+        <v>1971.08</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>3000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>5918.93</v>
+        <v>6118.24</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>183.17</v>
+        <v>366.34</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>183.17</v>
+        <v>366.34</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>6118.24</v>
+        <v>6301.41</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -3174,13 +3174,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2344.89</v>
+        <v>2528.06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>775.2245000000003</v>
+        <v>592.0545000000002</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.7515397271478338</v>
+        <v>0.8102459060396662</v>
       </c>
     </row>
     <row r="4">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>12506.69</v>
+        <v>12689.86</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>10993.31093005039</v>
+        <v>10810.14093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5321995534054297</v>
+        <v>0.5399940211820574</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3438,13 +3438,13 @@
         <v>483</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>629.48</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>483</v>
+        <v>-146.48</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0</v>
+        <v>1.303271221532091</v>
       </c>
     </row>
     <row r="15">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>12689.86</v>
+        <v>13319.34</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>10810.14093005039</v>
+        <v>10180.66093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5399940211820574</v>
+        <v>0.5667804031006666</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>648</v>
+        <v>2851.2</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>475.2</v>
+        <v>1742.4</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>730.35</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>2691.25</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>774.7</v>
@@ -2196,42 +2196,42 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
+          <t>2 de 27</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
           <t>1 de 27</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>1 de 27</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t>1 de 27</t>
-        </is>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>2 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1971.08</v>
+        <v>8863.08</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>3000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>6301.41</v>
+        <v>13193.41</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -3150,13 +3150,13 @@
         <v>344.284604629486</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>648</v>
+        <v>2851.2</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-303.715395370514</v>
+        <v>-2506.915395370514</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>1.882163742690057</v>
+        <v>8.281520467836252</v>
       </c>
     </row>
     <row r="3">
@@ -3174,13 +3174,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2528.06</v>
+        <v>3795.26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>592.0545000000002</v>
+        <v>-675.1455000000001</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.8102459060396662</v>
+        <v>1.216384847415055</v>
       </c>
     </row>
     <row r="4">
@@ -3198,13 +3198,13 @@
         <v>250.631825420901</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1207.11</v>
+        <v>1937.46</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-956.4781745790989</v>
+        <v>-1686.828174579099</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>4.81626783818387</v>
+        <v>7.730303191728774</v>
       </c>
     </row>
     <row r="5">
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2862.56</v>
+        <v>5553.81</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1224.56</v>
+        <v>-3915.81</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>1.747594627594627</v>
+        <v>3.390604395604396</v>
       </c>
     </row>
     <row r="16">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>13319.34</v>
+        <v>20211.34</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>10180.66093005039</v>
+        <v>3288.660930050386</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5667804031006666</v>
+        <v>0.8600569872384538</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2851.2</v>
+        <v>3473.28</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>1742.4</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8863.08</v>
+        <v>9485.16</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>3000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>13193.41</v>
+        <v>13815.49</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -3150,13 +3150,13 @@
         <v>344.284604629486</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2851.2</v>
+        <v>3473.28</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-2506.915395370514</v>
+        <v>-3128.995395370514</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>8.281520467836252</v>
+        <v>10.08839766081871</v>
       </c>
     </row>
     <row r="3">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>20211.34</v>
+        <v>20833.42</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>3288.660930050386</v>
+        <v>2666.580930050387</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.8600569872384538</v>
+        <v>0.8865284755525042</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1490,7 +1490,7 @@
         <v>36.63</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>36.55</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9485.16</v>
+        <v>9556.26</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>3000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>13815.49</v>
+        <v>13886.59</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>45.36</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>2 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>366.34</v>
+        <v>411.7</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>13886.59</v>
+        <v>13931.95</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -3486,13 +3486,13 @@
         <v>13061.58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3327.4</v>
+        <v>3372.76</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>9734.18</v>
+        <v>9688.82</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.2547471286015934</v>
+        <v>0.2582199090768498</v>
       </c>
     </row>
     <row r="17">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>20833.42</v>
+        <v>20878.78</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2666.580930050387</v>
+        <v>2621.220930050386</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.8865284755525042</v>
+        <v>0.8884586882420704</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3174,13 +3174,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3795.26</v>
+        <v>4080.38</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-675.1455000000001</v>
+        <v>-960.2655</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1.216384847415055</v>
+        <v>1.307766109224517</v>
       </c>
     </row>
     <row r="4">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>20878.78</v>
+        <v>21163.9</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2621.220930050386</v>
+        <v>2336.100930050386</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.8884586882420704</v>
+        <v>0.9005914537193432</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0</v>
+        <v>762.16</v>
       </c>
       <c r="O14" s="2" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>646.75</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
@@ -2196,67 +2196,67 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
+          <t>4 de 27</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>0 de 27</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
           <t>2 de 27</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>2 de 27</t>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="O29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="P29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
         <is>
           <t>1 de 27</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>1 de 27</t>
-        </is>
-      </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t>1 de 27</t>
-        </is>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>2 de 27</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>2 de 27</t>
-        </is>
-      </c>
-      <c r="N29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="O29" s="4" t="inlineStr">
-        <is>
-          <t>1 de 27</t>
-        </is>
-      </c>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="Q29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
         </is>
       </c>
       <c r="R29" s="4" t="inlineStr">
@@ -2675,7 +2675,7 @@
         <v>3122.02</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>1473.73</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>2500</v>
@@ -2783,7 +2783,7 @@
         <v>6725.74</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>3000</v>
@@ -3070,7 +3070,7 @@
         <v>12261.62</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>13931.95</v>
+        <v>15470.5</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>
@@ -3198,13 +3198,13 @@
         <v>250.631825420901</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1937.46</v>
+        <v>2067.1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1686.828174579099</v>
+        <v>-1816.468174579099</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>7.730303191728774</v>
+        <v>8.247555937992294</v>
       </c>
     </row>
     <row r="5">
@@ -3438,13 +3438,13 @@
         <v>483</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>629.48</v>
+        <v>1276.23</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-146.48</v>
+        <v>-793.23</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>1.303271221532091</v>
+        <v>2.642298136645963</v>
       </c>
     </row>
     <row r="15">
@@ -3510,13 +3510,13 @@
         <v>342</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>762.16</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>342</v>
+        <v>-420.16</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0</v>
+        <v>2.228538011695906</v>
       </c>
     </row>
     <row r="18">
@@ -3553,13 +3553,13 @@
         <v>23500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>21163.9</v>
+        <v>22702.45</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2336.100930050386</v>
+        <v>797.5509300503857</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.9005914537193432</v>
+        <v>0.9660616638942116</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>91.58</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>647.08</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>762.16</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>646.75</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1475,25 +1475,25 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3473.28</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1742.4</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>730.35</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>36.63</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>71.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>36.55</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2691.25</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>774.7</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>366.34</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>45.36</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1108.6</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>2116.73</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
         <v>0</v>
@@ -2186,17 +2186,17 @@
     <row r="29">
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>3 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>4 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -2206,17 +2206,17 @@
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2231,22 +2231,22 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>2 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>2 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="P29" s="4" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="Q29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="R29" s="4" t="inlineStr">
@@ -2286,10 +2286,10 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>419.13</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>419.13</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>738.66</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>738.66</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>1000</v>
@@ -2666,16 +2666,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1444.13</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>3122.02</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3122.02</v>
+        <v>1473.73</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1473.73</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>2500</v>
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2753,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>9556.26</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9556.26</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>3000</v>
@@ -2777,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>6725.74</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6725.74</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>3000</v>
@@ -2801,16 +2801,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>800.79</v>
+        <v>1126</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>411.7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>411.7</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1000</v>
@@ -2855,16 +2855,16 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>738.55</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>1994.73</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1994.73</v>
+        <v>3225.33</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3225.33</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>2000</v>
@@ -3061,16 +3061,16 @@
     </row>
     <row r="29">
       <c r="C29" s="6" t="n">
-        <v>2983.47</v>
+        <v>1352.8</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>1352.8</v>
+        <v>12261.62</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>12261.62</v>
+        <v>15470.5</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>15470.5</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20500</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="19">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22">
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3098,9 +3098,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3150,13 +3150,13 @@
         <v>344.284604629486</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3473.28</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-3128.995395370514</v>
+        <v>344.284604629486</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>10.08839766081871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3174,13 +3174,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4080.38</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-960.2655</v>
+        <v>3120.1145</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1.307766109224517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3198,13 +3198,13 @@
         <v>250.631825420901</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2067.1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1816.468174579099</v>
+        <v>250.631825420901</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>8.247555937992294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>483</v>
+        <v>240</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1276.23</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-793.23</v>
+        <v>240</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>2.642298136645963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5553.81</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-3915.81</v>
+        <v>1638</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>3.390604395604396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3483,16 +3483,16 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>13061.58</v>
+        <v>17085.89</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3372.76</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>9688.82</v>
+        <v>17085.89</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.2582199090768498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3510,13 +3510,13 @@
         <v>342</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>762.16</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-420.16</v>
+        <v>342</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>2.228538011695906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3534,13 +3534,13 @@
         <v>1200</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2116.73</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-916.73</v>
+        <v>1200</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>1.763941666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3550,16 +3550,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>23500.00093005039</v>
+        <v>27181.31093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>22702.45</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>797.5509300503857</v>
+        <v>27181.31093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.9660616638942116</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>2177.28</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2783,7 +2783,7 @@
         <v>64.81999999999999</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>2177.28</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>6000</v>
@@ -3070,7 +3070,7 @@
         <v>15470.5</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0</v>
+        <v>2177.28</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>23500</v>
@@ -3098,9 +3098,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3486,13 +3486,13 @@
         <v>17085.89</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>2177.28</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>17085.89</v>
+        <v>14908.61</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0</v>
+        <v>0.1274314653787424</v>
       </c>
     </row>
     <row r="17">
@@ -3553,13 +3553,13 @@
         <v>27181.31093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>2177.28</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>27181.31093005039</v>
+        <v>25004.03093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0</v>
+        <v>0.08010209682686427</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0</v>
+        <v>-513.72</v>
       </c>
       <c r="O14" s="2" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>-44.6</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>1473.73</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>-558.3200000000001</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>2500</v>
@@ -3070,7 +3070,7 @@
         <v>15470.5</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>2177.28</v>
+        <v>1618.96</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>23500</v>
@@ -3100,7 +3100,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3438,13 +3438,13 @@
         <v>240</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>-44.6</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>240</v>
+        <v>284.6</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0</v>
+        <v>-0.1858333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -3510,13 +3510,13 @@
         <v>342</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>-513.72</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>342</v>
+        <v>855.72</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0</v>
+        <v>-1.502105263157895</v>
       </c>
     </row>
     <row r="18">
@@ -3553,13 +3553,13 @@
         <v>27181.31093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2177.28</v>
+        <v>1618.96</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>25004.03093005039</v>
+        <v>25562.35093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.08010209682686427</v>
+        <v>0.05956151284116889</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>309.47</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>1735.84</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>2 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2810,7 +2810,7 @@
         <v>411.7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>2045.31</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>2000</v>
@@ -3070,7 +3070,7 @@
         <v>15470.5</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>1618.96</v>
+        <v>3664.27</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>23500</v>
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>309.47</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1638</v>
+        <v>1328.53</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0</v>
+        <v>0.1889316239316239</v>
       </c>
     </row>
     <row r="16">
@@ -3486,13 +3486,13 @@
         <v>17085.89</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2177.28</v>
+        <v>3913.12</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>14908.61</v>
+        <v>13172.77</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.1274314653787424</v>
+        <v>0.2290264071698928</v>
       </c>
     </row>
     <row r="17">
@@ -3553,13 +3553,13 @@
         <v>27181.31093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1618.96</v>
+        <v>3664.27</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>25562.35093005039</v>
+        <v>23517.04093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.05956151284116889</v>
+        <v>0.1348084354514688</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3510,13 +3510,13 @@
         <v>342</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-513.72</v>
+        <v>-279.25</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>855.72</v>
+        <v>621.25</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>-1.502105263157895</v>
+        <v>-0.8165204678362573</v>
       </c>
     </row>
     <row r="18">
@@ -3553,13 +3553,13 @@
         <v>27181.31093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3664.27</v>
+        <v>3898.74</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>23517.04093005039</v>
+        <v>23282.57093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.1348084354514688</v>
+        <v>0.143434583049846</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>565.25</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>1900.8</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2191,47 +2191,47 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>2 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -2675,7 +2675,7 @@
         <v>1473.73</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-558.3200000000001</v>
+        <v>6.93</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>2500</v>
@@ -2783,7 +2783,7 @@
         <v>64.81999999999999</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2177.28</v>
+        <v>4078.08</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>6000</v>
@@ -3070,7 +3070,7 @@
         <v>15470.5</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>3664.27</v>
+        <v>6130.32</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>23500</v>
@@ -3174,13 +3174,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>1900.8</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3120.1145</v>
+        <v>1219.3145</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>0.6092084120630828</v>
       </c>
     </row>
     <row r="4">
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>309.47</v>
+        <v>874.72</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1328.53</v>
+        <v>763.28</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.1889316239316239</v>
+        <v>0.5340170940170941</v>
       </c>
     </row>
     <row r="16">
@@ -3553,13 +3553,13 @@
         <v>27181.31093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3898.74</v>
+        <v>6364.79</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>23282.57093005039</v>
+        <v>20816.52093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.143434583049846</v>
+        <v>0.2341605236178431</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1900.8</v>
+        <v>6514.56</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>64.81999999999999</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4078.08</v>
+        <v>8691.84</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>6000</v>
@@ -3070,7 +3070,7 @@
         <v>15470.5</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>6130.32</v>
+        <v>10744.08</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>23500</v>
@@ -3174,13 +3174,13 @@
         <v>3120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1900.8</v>
+        <v>6514.56</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1219.3145</v>
+        <v>-3394.4455</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.6092084120630828</v>
+        <v>2.08792337588893</v>
       </c>
     </row>
     <row r="4">
@@ -3553,13 +3553,13 @@
         <v>27181.31093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6364.79</v>
+        <v>10978.55</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>20816.52093005039</v>
+        <v>16202.76093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.2341605236178431</v>
+        <v>0.4039006811795317</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>250.56</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>565.25</v>
+        <v>3217</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0</v>
+        <v>1081.17</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>-513.72</v>
@@ -2186,49 +2186,49 @@
     <row r="29">
       <c r="C29" s="4" t="inlineStr">
         <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>1 de 27</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>1 de 27</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>0 de 27</t>
         </is>
       </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
           <t>2 de 27</t>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>2 de 27</t>
+          <t>3 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2675,7 +2675,7 @@
         <v>1473.73</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.93</v>
+        <v>3990.41</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>2500</v>
@@ -3070,7 +3070,7 @@
         <v>15470.5</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>10744.08</v>
+        <v>14727.56</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>23500</v>
@@ -3099,7 +3099,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -3150,13 +3150,13 @@
         <v>344.284604629486</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>250.56</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>344.284604629486</v>
+        <v>93.72460462948601</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0</v>
+        <v>0.7277699805068222</v>
       </c>
     </row>
     <row r="3">
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>874.72</v>
+        <v>3526.47</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>763.28</v>
+        <v>-1888.47</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.5340170940170941</v>
+        <v>2.152912087912088</v>
       </c>
     </row>
     <row r="16">
@@ -3486,13 +3486,13 @@
         <v>17085.89</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3913.12</v>
+        <v>4994.29</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>13172.77</v>
+        <v>12091.6</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.2290264071698928</v>
+        <v>0.2923049369977215</v>
       </c>
     </row>
     <row r="17">
@@ -3553,13 +3553,13 @@
         <v>27181.31093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>10978.55</v>
+        <v>14962.03</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>16202.76093005039</v>
+        <v>12219.28093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4039006811795317</v>
+        <v>0.5504528474915711</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>250.56</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1322,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3217</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>1081.17</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>-513.72</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>-44.6</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6514.56</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>2177.28</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>309.47</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>1735.84</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -2186,12 +2186,12 @@
     <row r="29">
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>2 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>3 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2286,10 +2286,10 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>419.13</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>419.13</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>738.66</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>738.66</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -2666,16 +2666,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>3122.02</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3122.02</v>
+        <v>1473.73</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1473.73</v>
+        <v>3990.41</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3990.41</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>2500</v>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>9556.26</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9556.26</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2774,16 +2774,16 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>6725.74</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6725.74</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>8691.84</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8691.84</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>6000</v>
@@ -2801,16 +2801,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>411.7</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>411.7</v>
+        <v>2045.31</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2045.31</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>2000</v>
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>1994.73</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1994.73</v>
+        <v>3225.33</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3225.33</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -3061,16 +3061,16 @@
     </row>
     <row r="29">
       <c r="C29" s="6" t="n">
-        <v>1352.8</v>
+        <v>12261.62</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>12261.62</v>
+        <v>15470.5</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>15470.5</v>
+        <v>14727.56</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>14727.56</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>23500</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3098,9 +3098,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3150,13 +3150,13 @@
         <v>344.284604629486</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>250.56</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>93.72460462948601</v>
+        <v>344.284604629486</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.7277699805068222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3171,16 +3171,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3120.1145</v>
+        <v>7120.1145</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6514.56</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-3394.4455</v>
+        <v>7120.1145</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>2.08792337588893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-44.6</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>284.6</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.1858333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3526.47</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1888.47</v>
+        <v>1638</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>2.152912087912088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3483,16 +3483,16 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>17085.89</v>
+        <v>23904.58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4994.29</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>12091.6</v>
+        <v>23904.58</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.2923049369977215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3510,13 +3510,13 @@
         <v>342</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-279.25</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>621.25</v>
+        <v>342</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>-0.8165204678362573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3550,16 +3550,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>27181.31093005039</v>
+        <v>37500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>14962.03</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>12219.28093005039</v>
+        <v>37500.00093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5504528474915711</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6">
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15">
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="18">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="19">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>23500</v>
+        <v>32000</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>2227.24</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2810,7 +2810,7 @@
         <v>2045.31</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>2227.24</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>5000</v>
@@ -3070,7 +3070,7 @@
         <v>14727.56</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0</v>
+        <v>2227.24</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>32000</v>
@@ -3098,9 +3098,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>2227.24</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1638</v>
+        <v>-589.2399999999998</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0</v>
+        <v>1.35973137973138</v>
       </c>
     </row>
     <row r="16">
@@ -3553,13 +3553,13 @@
         <v>37500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>2227.24</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>37500.00093005039</v>
+        <v>35272.76093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0</v>
+        <v>0.05939306519363884</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2227.24</v>
+        <v>1670.43</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>2045.31</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2227.24</v>
+        <v>1670.43</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>5000</v>
@@ -3070,7 +3070,7 @@
         <v>14727.56</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>2227.24</v>
+        <v>1670.43</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>32000</v>
@@ -3100,7 +3100,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2227.24</v>
+        <v>1670.43</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-589.2399999999998</v>
+        <v>-32.43000000000006</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>1.35973137973138</v>
+        <v>1.019798534798535</v>
       </c>
     </row>
     <row r="16">
@@ -3553,13 +3553,13 @@
         <v>37500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2227.24</v>
+        <v>1670.43</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>35272.76093005039</v>
+        <v>35829.57093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.05939306519363884</v>
+        <v>0.04454479889522914</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1625,7 +1625,7 @@
         <v>1670.43</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>167.45</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2810,7 +2810,7 @@
         <v>2045.31</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1670.43</v>
+        <v>1837.88</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>5000</v>
@@ -3070,7 +3070,7 @@
         <v>14727.56</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>1670.43</v>
+        <v>1837.88</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>32000</v>
@@ -3100,7 +3100,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3486,13 +3486,13 @@
         <v>23904.58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>167.45</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>23904.58</v>
+        <v>23737.13</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0</v>
+        <v>0.007004933782563842</v>
       </c>
     </row>
     <row r="17">
@@ -3553,13 +3553,13 @@
         <v>37500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1670.43</v>
+        <v>1837.88</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>35829.57093005039</v>
+        <v>35662.12093005038</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.04454479889522914</v>
+        <v>0.04901013211781621</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>2702.94</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>2 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
@@ -2783,7 +2783,7 @@
         <v>8691.84</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>2702.94</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>7500</v>
@@ -3070,7 +3070,7 @@
         <v>14727.56</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>1837.88</v>
+        <v>4540.82</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>32000</v>
@@ -3099,7 +3099,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1670.43</v>
+        <v>4373.37</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-32.43000000000006</v>
+        <v>-2735.37</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>1.019798534798535</v>
+        <v>2.669945054945055</v>
       </c>
     </row>
     <row r="16">
@@ -3553,13 +3553,13 @@
         <v>37500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1837.88</v>
+        <v>4540.82</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>35662.12093005038</v>
+        <v>32959.18093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.04901013211781621</v>
+        <v>0.1210885303301751</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>907.5</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>377.14</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>0</v>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>0 de 27</t>
+          <t>1 de 27</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>1284.64</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>1000</v>
@@ -3070,7 +3070,7 @@
         <v>14727.56</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>4540.82</v>
+        <v>5825.46</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>32000</v>
@@ -3270,13 +3270,13 @@
         <v>560</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>907.5</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>560</v>
+        <v>-347.5</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>1.620535714285714</v>
       </c>
     </row>
     <row r="8">
@@ -3294,13 +3294,13 @@
         <v>625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>377.14</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>625</v>
+        <v>247.86</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0</v>
+        <v>0.603424</v>
       </c>
     </row>
     <row r="9">
@@ -3553,13 +3553,13 @@
         <v>37500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4540.82</v>
+        <v>5825.46</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>32959.18093005039</v>
+        <v>31674.54093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.1210885303301751</v>
+        <v>0.1553455961472205</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2702.94</v>
+        <v>4413.66</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>8691.84</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2702.94</v>
+        <v>4413.66</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>7500</v>
@@ -3070,7 +3070,7 @@
         <v>14727.56</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>5825.46</v>
+        <v>7536.18</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>32000</v>
@@ -3462,13 +3462,13 @@
         <v>1638</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4373.37</v>
+        <v>6084.09</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-2735.37</v>
+        <v>-4446.09</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>2.669945054945055</v>
+        <v>3.714340659340659</v>
       </c>
     </row>
     <row r="16">
@@ -3553,13 +3553,13 @@
         <v>37500.00093005039</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>5825.46</v>
+        <v>7536.179999999999</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>31674.54093005039</v>
+        <v>29963.82093005039</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.1553455961472205</v>
+        <v>0.200964795015803</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>907.5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>377.14</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>4413.66</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1670.43</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>167.45</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>2 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>1 de 27</t>
+          <t>0 de 27</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>419.13</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>738.66</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>738.66</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>1284.64</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1284.64</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>1000</v>
@@ -2666,13 +2666,13 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>3122.02</v>
+        <v>1473.73</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1473.73</v>
+        <v>3990.41</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3990.41</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>9556.26</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>9556.26</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -2774,16 +2774,16 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>6725.74</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>8691.84</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>8691.84</v>
+        <v>4413.66</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4413.66</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>7500</v>
@@ -2801,16 +2801,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>411.7</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>411.7</v>
+        <v>2045.31</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2045.31</v>
+        <v>1837.88</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1837.88</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>5000</v>
@@ -2855,10 +2855,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1994.73</v>
+        <v>3225.33</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3225.33</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -3061,16 +3061,16 @@
     </row>
     <row r="29">
       <c r="C29" s="6" t="n">
-        <v>12261.62</v>
+        <v>15470.5</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>15470.5</v>
+        <v>14727.56</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>14727.56</v>
+        <v>7536.18</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>7536.18</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>32000</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
+          <t>ARBIZACONSTRUC S.A.</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
+          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
+          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAESCORP S.A.S.</t>
+          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
+          <t>BAESCORP S.A.S.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DELGADO COPPIANO JORGE RODOLFO</t>
+          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DISALME CIA. LTDA.</t>
+          <t>DELGADO COPPIANO JORGE RODOLFO</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0</v>
+        <v>725.76</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1790,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>160.89</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -2131,137 +2131,197 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="G29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="N29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="O29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="Q29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
-        </is>
-      </c>
-      <c r="R29" s="4" t="inlineStr">
-        <is>
-          <t>0 de 27</t>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>1 de 28</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>1 de 28</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t>2 de 28</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>1 de 28</t>
+        </is>
+      </c>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="O30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="P30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
+        </is>
+      </c>
+      <c r="R30" s="4" t="inlineStr">
+        <is>
+          <t>0 de 28</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2381,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -2392,7 +2452,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
+          <t>ARBIZACONSTRUC S.A.</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -2405,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2419,7 +2479,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
+          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -2435,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2446,7 +2506,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
+          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -2462,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7">
@@ -2473,7 +2533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAESCORP S.A.S.</t>
+          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -2500,7 +2560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
+          <t>BAESCORP S.A.S.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -2527,7 +2587,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DELGADO COPPIANO JORGE RODOLFO</t>
+          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -2554,7 +2614,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DISALME CIA. LTDA.</t>
+          <t>DELGADO COPPIANO JORGE RODOLFO</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -2581,7 +2641,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -2608,7 +2668,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -2624,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2635,23 +2695,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>738.66</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1284.64</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2662,23 +2722,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1473.73</v>
+        <v>738.66</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3990.41</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>1284.64</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>725.76</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15">
@@ -2689,14 +2749,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>1473.73</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>3990.41</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -2705,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16">
@@ -2716,7 +2776,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -2732,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2743,11 +2803,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>9556.26</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -2756,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18">
@@ -2770,23 +2830,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>9556.26</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>8691.84</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>4413.66</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="19">
@@ -2797,23 +2857,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>411.7</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2045.31</v>
+        <v>8691.84</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1837.88</v>
+        <v>4413.66</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="20">
@@ -2824,23 +2884,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>411.7</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>2045.31</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>1837.88</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21">
@@ -2851,11 +2911,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3225.33</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -2867,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2878,11 +2938,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>3225.33</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -2891,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>967.89</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23">
@@ -2905,7 +2965,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -2932,7 +2992,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -2959,7 +3019,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -2986,7 +3046,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -3002,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3013,7 +3073,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -3040,40 +3100,67 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="6" t="n">
         <v>15470.5</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D30" s="6" t="n">
         <v>14727.56</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E30" s="6" t="n">
         <v>7536.18</v>
       </c>
-      <c r="F29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>32000</v>
+      <c r="F30" s="6" t="n">
+        <v>2503.9</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>28700</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3174,7 +3174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3185,9 +3185,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,13 +3234,13 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>344.284604629486</v>
+        <v>1377.24089543035</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>344.284604629486</v>
+        <v>1377.24089543035</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>7120.1145</v>
+        <v>2582.41380675037</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7120.1145</v>
+        <v>2582.41380675037</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>250.631825420901</v>
+        <v>558.15203605817</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>250.631825420901</v>
+        <v>558.15203605817</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
@@ -3302,17 +3302,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GRANITO</t>
+          <t>GRIFERIAS</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>238.32</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>238.32</v>
+        <v>150</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
@@ -3326,20 +3326,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GRIFERIAS</t>
+          <t>INODOROS</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>106.82</v>
+        <v>918.796443341442</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>106.82</v>
+        <v>111.796443341442</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0</v>
+        <v>0.8783229472081268</v>
       </c>
     </row>
     <row r="7">
@@ -3350,20 +3350,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INODOROS</t>
+          <t>LAVABOS</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>560</v>
+        <v>665.033262215681</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>907.5</v>
+        <v>160.89</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-347.5</v>
+        <v>504.143262215681</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>1.620535714285714</v>
+        <v>0.241927748792542</v>
       </c>
     </row>
     <row r="8">
@@ -3374,20 +3374,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAVABOS</t>
+          <t>NO RESURTIBLES</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>625</v>
+        <v>516.121873547834</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>377.14</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>247.86</v>
+        <v>516.121873547834</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.603424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>OTROS</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0</v>
@@ -3422,17 +3422,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NO RESURTIBLES</t>
+          <t>PANELES DECORATIVOS</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>650.25</v>
+        <v>388.107983534392</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>650.25</v>
+        <v>388.107983534392</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>0</v>
@@ -3446,20 +3446,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OTROS</t>
+          <t>PIEDRA SINTERIZADA</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>5844.44916370549</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>810.25</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>5034.19916370549</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0</v>
+        <v>0.1386358196135436</v>
       </c>
     </row>
     <row r="12">
@@ -3470,20 +3470,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PANELES DECORATIVOS</t>
+          <t>PORCELANATO</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>100</v>
+        <v>17675.3486842162</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>725.76</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>100</v>
+        <v>16949.5886842162</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0</v>
+        <v>0.04106057611457996</v>
       </c>
     </row>
     <row r="13">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PANELES PU</t>
+          <t>PUERTAS DE SEGURIDAD</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>20</v>
+        <v>364.412605947529</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>20</v>
+        <v>364.412605947529</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>0</v>
@@ -3518,135 +3518,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PANELES PVC</t>
+          <t>SAL SOLUBLE</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>100</v>
+        <v>667.683148387554</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>100</v>
+        <v>667.683148387554</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PIEDRA SINTERIZADA</t>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1638</v>
+        <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6084.09</v>
+        <v>2503.9</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-4446.09</v>
+        <v>29203.85990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>3.714340659340659</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PORCELANATO</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>23904.58</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>167.45</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>23737.13</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>0.007004933782563842</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PUERTAS DE SEGURIDAD</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SAL SOLUBLE</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>37500.00093005039</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>7536.179999999999</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>29963.82093005039</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0.200964795015803</v>
+        <v>0.07896805096447176</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3285,13 +3285,13 @@
         <v>558.15203605817</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>558.15203605817</v>
+        <v>483.86203605817</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>0.1330999355026228</v>
       </c>
     </row>
     <row r="5">
@@ -3544,13 +3544,13 @@
         <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2503.9</v>
+        <v>2578.19</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>29203.85990313501</v>
+        <v>29129.56990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.07896805096447176</v>
+        <v>0.08131101054997862</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>212.89</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>2194.29</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>0</v>
@@ -2246,52 +2246,52 @@
     <row r="30">
       <c r="C30" s="4" t="inlineStr">
         <is>
+          <t>1 de 28</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
           <t>0 de 28</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>0 de 28</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>0 de 28</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>0 de 28</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>1 de 28</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>1 de 28</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>0 de 28</t>
         </is>
       </c>
-      <c r="H30" s="4" t="inlineStr">
-        <is>
-          <t>1 de 28</t>
-        </is>
-      </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>1 de 28</t>
-        </is>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="K30" s="4" t="inlineStr">
         <is>
           <t>0 de 28</t>
         </is>
       </c>
-      <c r="K30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>2 de 28</t>
+          <t>3 de 28</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>2407.18</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>4000</v>
@@ -3157,7 +3157,7 @@
         <v>7536.18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2503.9</v>
+        <v>4911.08</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>28700</v>
@@ -3185,7 +3185,7 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3237,13 +3237,13 @@
         <v>1377.24089543035</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>212.89</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1377.24089543035</v>
+        <v>1164.35089543035</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0</v>
+        <v>0.1545771699826541</v>
       </c>
     </row>
     <row r="3">
@@ -3453,13 +3453,13 @@
         <v>5844.44916370549</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>810.25</v>
+        <v>3332.21</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>5034.19916370549</v>
+        <v>2512.23916370549</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.1386358196135436</v>
+        <v>0.5701495396167184</v>
       </c>
     </row>
     <row r="12">
@@ -3544,13 +3544,13 @@
         <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2578.19</v>
+        <v>5313.040000000001</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>29129.56990313501</v>
+        <v>26394.71990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.08131101054997862</v>
+        <v>0.1675627674812402</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>327.67</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>3 de 28</t>
+          <t>4 de 28</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>327.67</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1500</v>
@@ -3157,7 +3157,7 @@
         <v>7536.18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4911.08</v>
+        <v>5238.75</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>28700</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISALME CIA. LTDA.</t>
+          <t>DELGADO LOOR JORGE ARTURO</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>725.76</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>0</v>
@@ -1351,11 +1351,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>212.89</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2194.29</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0</v>
+        <v>725.76</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>0</v>
@@ -1411,11 +1411,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>212.89</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>2194.29</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1790,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>160.89</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>160.89</v>
       </c>
       <c r="J23" s="2" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -2191,137 +2191,197 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>1 de 28</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="H30" s="4" t="inlineStr">
-        <is>
-          <t>1 de 28</t>
-        </is>
-      </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>1 de 28</t>
-        </is>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="K30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="L30" s="4" t="inlineStr">
-        <is>
-          <t>4 de 28</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t>1 de 28</t>
-        </is>
-      </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="O30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="P30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="Q30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
-        </is>
-      </c>
-      <c r="R30" s="4" t="inlineStr">
-        <is>
-          <t>0 de 28</t>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>1 de 29</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>1 de 29</t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>1 de 29</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t>4 de 29</t>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>1 de 29</t>
+        </is>
+      </c>
+      <c r="N31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="O31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="P31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="Q31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
+        </is>
+      </c>
+      <c r="R31" s="4" t="inlineStr">
+        <is>
+          <t>0 de 29</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2641,7 +2701,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISALME CIA. LTDA.</t>
+          <t>DELGADO LOOR JORGE ARTURO</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -2668,7 +2728,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -2695,7 +2755,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -2722,23 +2782,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>738.66</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1284.64</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>725.76</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2749,23 +2809,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1473.73</v>
+        <v>738.66</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3990.41</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>1284.64</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2407.18</v>
+        <v>725.76</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16">
@@ -2776,23 +2836,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>1473.73</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>3990.41</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>2407.18</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17">
@@ -2803,7 +2863,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -2816,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2830,11 +2890,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>9556.26</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -2843,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
@@ -2857,23 +2917,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>9556.26</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>8691.84</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>4413.66</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="20">
@@ -2884,23 +2944,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>411.7</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2045.31</v>
+        <v>8691.84</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1837.88</v>
+        <v>4413.66</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="21">
@@ -2911,23 +2971,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>411.7</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>2045.31</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>1837.88</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="22">
@@ -2938,11 +2998,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3225.33</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -2951,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>967.89</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2965,11 +3025,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>3225.33</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -2978,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>967.89</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="24">
@@ -2992,7 +3052,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -3019,7 +3079,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -3046,7 +3106,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -3073,7 +3133,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -3100,7 +3160,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -3127,39 +3187,66 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="6" t="n">
         <v>15470.5</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D31" s="6" t="n">
         <v>14727.56</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E31" s="6" t="n">
         <v>7536.18</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F31" s="6" t="n">
         <v>5238.75</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G31" s="6" t="n">
         <v>28700</v>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>835.22</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>835.22</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>700</v>
@@ -3244,7 +3244,7 @@
         <v>7536.18</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5238.75</v>
+        <v>5517.16</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>28700</v>
@@ -3540,13 +3540,13 @@
         <v>5844.44916370549</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3332.21</v>
+        <v>3610.62</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2512.23916370549</v>
+        <v>2233.82916370549</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.5701495396167184</v>
+        <v>0.6177861931663718</v>
       </c>
     </row>
     <row r="12">
@@ -3631,13 +3631,13 @@
         <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5313.040000000001</v>
+        <v>5591.450000000001</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>26394.71990313501</v>
+        <v>26116.30990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.1675627674812402</v>
+        <v>0.1763432679281504</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>725.76</v>
+        <v>1451.52</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>1284.64</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>725.76</v>
+        <v>1451.52</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>2000</v>
@@ -3244,7 +3244,7 @@
         <v>7536.18</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5517.16</v>
+        <v>6242.92</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>28700</v>
@@ -3564,13 +3564,13 @@
         <v>17675.3486842162</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>725.76</v>
+        <v>1451.52</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>16949.5886842162</v>
+        <v>16223.8286842162</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.04106057611457996</v>
+        <v>0.08212115222915993</v>
       </c>
     </row>
     <row r="13">
@@ -3631,13 +3631,13 @@
         <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5591.450000000001</v>
+        <v>6317.210000000001</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>26116.30990313501</v>
+        <v>25390.54990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.1763432679281504</v>
+        <v>0.1992323021020292</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>1451.52</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>0</v>
@@ -1411,11 +1411,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>212.89</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2194.29</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>1451.52</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -1471,11 +1471,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>212.89</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>2194.29</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>835.22</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>835.22</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>160.89</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1910,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>160.89</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -2251,137 +2251,197 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>1 de 29</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="H31" s="4" t="inlineStr">
-        <is>
-          <t>1 de 29</t>
-        </is>
-      </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t>1 de 29</t>
-        </is>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="K31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="L31" s="4" t="inlineStr">
-        <is>
-          <t>4 de 29</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t>1 de 29</t>
-        </is>
-      </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="O31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="P31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="Q31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
-        </is>
-      </c>
-      <c r="R31" s="4" t="inlineStr">
-        <is>
-          <t>0 de 29</t>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t>4 de 30</t>
+        </is>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="N32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="O32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="P32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
+        </is>
+      </c>
+      <c r="R32" s="4" t="inlineStr">
+        <is>
+          <t>0 de 30</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2809,23 +2869,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>738.66</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1284.64</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1451.52</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2836,23 +2896,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1473.73</v>
+        <v>738.66</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3990.41</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>1284.64</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2407.18</v>
+        <v>1451.52</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17">
@@ -2863,23 +2923,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>1473.73</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>3990.41</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>2407.18</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18">
@@ -2890,7 +2950,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -2903,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>835.22</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2917,11 +2977,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>9556.26</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -2930,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>835.22</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20">
@@ -2944,23 +3004,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>9556.26</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>8691.84</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>4413.66</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="21">
@@ -2971,23 +3031,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>411.7</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2045.31</v>
+        <v>8691.84</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1837.88</v>
+        <v>4413.66</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="22">
@@ -2998,23 +3058,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>411.7</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>2045.31</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>1837.88</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="23">
@@ -3025,11 +3085,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3225.33</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -3038,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>967.89</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3052,11 +3112,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>3225.33</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -3065,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>967.89</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="25">
@@ -3079,7 +3139,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -3106,7 +3166,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -3133,7 +3193,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -3160,7 +3220,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VERA ARCE MARIA ISABEL</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -3187,7 +3247,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -3214,39 +3274,66 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LOZANO MOLINA TITO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="6" t="n">
         <v>15470.5</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D32" s="6" t="n">
         <v>14727.56</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E32" s="6" t="n">
         <v>7536.18</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F32" s="6" t="n">
         <v>6242.92</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G32" s="6" t="n">
         <v>28700</v>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>327.67</v>
+        <v>655.34</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>835.22</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>565.25</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>1900.8</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -2371,47 +2371,47 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr">
-        <is>
-          <t>1 de 30</t>
-        </is>
-      </c>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t>1 de 30</t>
-        </is>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="K32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>4 de 30</t>
+          <t>5 de 30</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>327.67</v>
+        <v>655.34</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1500</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>835.22</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>700</v>
@@ -3071,7 +3071,7 @@
         <v>1837.88</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>565.25</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>5000</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>967.89</v>
+        <v>2868.69</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>3000</v>
@@ -3331,7 +3331,7 @@
         <v>7536.18</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>6242.92</v>
+        <v>8758.23</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>28700</v>
@@ -3435,13 +3435,13 @@
         <v>2582.41380675037</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>1900.8</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2582.41380675037</v>
+        <v>681.61380675037</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>0.7360555442475379</v>
       </c>
     </row>
     <row r="4">
@@ -3627,13 +3627,13 @@
         <v>5844.44916370549</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3610.62</v>
+        <v>4225.13</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2233.82916370549</v>
+        <v>1619.31916370549</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.6177861931663718</v>
+        <v>0.7229304048426677</v>
       </c>
     </row>
     <row r="12">
@@ -3718,13 +3718,13 @@
         <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6317.210000000001</v>
+        <v>8832.52</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>25390.54990313501</v>
+        <v>22875.23990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.1992323021020292</v>
+        <v>0.2785602018869429</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>0</v>
+        <v>831.1799999999999</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>0</v>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="P32" s="4" t="inlineStr">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>831.1799999999999</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>7536.18</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>8758.23</v>
+        <v>9589.41</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>28700</v>
@@ -3360,7 +3360,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -3699,13 +3699,13 @@
         <v>667.683148387554</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>831.1799999999999</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>667.683148387554</v>
+        <v>-163.496851612446</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0</v>
+        <v>1.244871915679299</v>
       </c>
     </row>
     <row r="15">
@@ -3718,13 +3718,13 @@
         <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8832.52</v>
+        <v>9663.700000000001</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>22875.23990313501</v>
+        <v>22044.05990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.2785602018869429</v>
+        <v>0.3047739742423284</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>1451.52</v>
+        <v>1463.58</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>1284.64</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1451.52</v>
+        <v>1463.58</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>2000</v>
@@ -3331,7 +3331,7 @@
         <v>7536.18</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>9589.41</v>
+        <v>9601.469999999999</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>28700</v>
@@ -3361,7 +3361,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3651,13 +3651,13 @@
         <v>17675.3486842162</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1451.52</v>
+        <v>1463.58</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>16223.8286842162</v>
+        <v>16211.7686842162</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.08212115222915993</v>
+        <v>0.0828034584294766</v>
       </c>
     </row>
     <row r="13">
@@ -3718,13 +3718,13 @@
         <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>9663.700000000001</v>
+        <v>9675.76</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>22044.05990313501</v>
+        <v>22031.99990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3047739742423284</v>
+        <v>0.3051543227764677</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -3435,13 +3435,13 @@
         <v>2582.41380675037</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1900.8</v>
+        <v>3967.49</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>681.61380675037</v>
+        <v>-1385.07619324963</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.7360555442475379</v>
+        <v>1.536349437734988</v>
       </c>
     </row>
     <row r="4">
@@ -3651,13 +3651,13 @@
         <v>17675.3486842162</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1463.58</v>
+        <v>5019.5</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>16211.7686842162</v>
+        <v>12655.8486842162</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.0828034584294766</v>
+        <v>0.2839830822959851</v>
       </c>
     </row>
     <row r="13">
@@ -3718,13 +3718,13 @@
         <v>31707.75990313501</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>9675.76</v>
+        <v>15298.37</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>22031.99990313501</v>
+        <v>16409.38990313501</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3051543227764677</v>
+        <v>0.4824803154412501</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>183.17</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>2 de 30</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
+        <v>183.17</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>7536.18</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>9601.469999999999</v>
+        <v>9784.639999999999</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>28700</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>183.17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>655.34</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>831.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>1463.58</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>212.89</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2194.29</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>565.25</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1900.8</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>160.89</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -2366,12 +2366,12 @@
     <row r="32">
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>2 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2391,12 +2391,12 @@
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2411,12 +2411,12 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>5 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="P32" s="4" t="inlineStr">
@@ -2468,8 +2468,8 @@
     <col width="49" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2528,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>183.17</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>183.17</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>655.34</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>655.34</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1500</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>831.1799999999999</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>831.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2900,16 +2900,16 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>738.66</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>1284.64</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1284.64</v>
+        <v>1463.58</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1463.58</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>2000</v>
@@ -2927,16 +2927,16 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1473.73</v>
+        <v>3990.41</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3990.41</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>2407.18</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2407.18</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>4000</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>700</v>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>9556.26</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -3035,13 +3035,13 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>8691.84</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>8691.84</v>
+        <v>4413.66</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>4413.66</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -3062,16 +3062,16 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>411.7</v>
+        <v>2045.31</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2045.31</v>
+        <v>1837.88</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1837.88</v>
+        <v>565.25</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>565.25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>5000</v>
@@ -3116,16 +3116,16 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3225.33</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0</v>
+        <v>2868.69</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2868.69</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>3000</v>
@@ -3322,16 +3322,16 @@
     </row>
     <row r="32">
       <c r="C32" s="6" t="n">
-        <v>15470.5</v>
+        <v>14727.56</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>14727.56</v>
+        <v>7536.18</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>7536.18</v>
+        <v>9784.639999999999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>9784.639999999999</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>28700</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>1391.04</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>2868.69</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>1391.04</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>3000</v>
@@ -3331,7 +3331,7 @@
         <v>9784.639999999999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0</v>
+        <v>1391.04</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>28700</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3128,7 +3128,7 @@
         <v>1391.04</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3334,7 +3334,7 @@
         <v>1391.04</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>28700</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>2 de 30</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -3071,7 +3071,7 @@
         <v>565.25</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>9784.639999999999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>1391.04</v>
+        <v>1644.48</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>2 de 30</t>
+          <t>3 de 30</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2639,7 +2639,7 @@
         <v>655.34</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>9784.639999999999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>1644.48</v>
+        <v>1730.98</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>633.6</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
@@ -2585,7 +2585,7 @@
         <v>253.44</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>633.6</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>9784.639999999999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>1730.98</v>
+        <v>2364.58</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>3 de 30</t>
+          <t>4 de 30</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>9784.639999999999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>2364.58</v>
+        <v>2454.34</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>1382.33</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
@@ -2909,7 +2909,7 @@
         <v>1463.58</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>1382.33</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>9784.639999999999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>2454.34</v>
+        <v>3836.67</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>633.6</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>1382.33</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>89.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1391.04</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>4 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2411,12 +2411,12 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
@@ -2467,9 +2467,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="49" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>183.17</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>183.17</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
@@ -2579,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>253.44</v>
+        <v>633.6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>633.6</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>655.34</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>655.34</v>
+        <v>86.5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>831.1799999999999</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>831.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -2900,16 +2900,16 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>1284.64</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1284.64</v>
+        <v>1463.58</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1463.58</v>
+        <v>1382.33</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1382.33</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3990.41</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>2407.18</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2407.18</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -3014,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>89.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8691.84</v>
+        <v>4413.66</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4413.66</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -3062,16 +3062,16 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2045.31</v>
+        <v>1837.88</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1837.88</v>
+        <v>565.25</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>565.25</v>
+        <v>253.44</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>0</v>
@@ -3119,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>2868.69</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2868.69</v>
+        <v>1391.04</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1391.04</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
     </row>
     <row r="32">
       <c r="C32" s="6" t="n">
-        <v>14727.56</v>
+        <v>7536.18</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>7536.18</v>
+        <v>9784.639999999999</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>9784.639999999999</v>
+        <v>3836.67</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>3836.67</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>489.11</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>489.11</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>3836.67</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0</v>
+        <v>489.11</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0</v>
+        <v>5511.6</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>5511.6</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>3836.67</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>489.11</v>
+        <v>6000.71</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>5511.6</v>
+        <v>7153.89</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5511.6</v>
+        <v>7153.89</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>3836.67</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>6000.71</v>
+        <v>7643</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>7153.89</v>
+        <v>8484.209999999999</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7153.89</v>
+        <v>8484.209999999999</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>3836.67</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>7643</v>
+        <v>8973.32</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>835.22</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>2 de 30</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>835.22</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>3836.67</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>8973.32</v>
+        <v>9808.539999999999</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>259.2</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>298.8</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>665.16</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0</v>
+        <v>231.88</v>
       </c>
       <c r="O24" s="2" t="n">
         <v>0</v>
@@ -2366,52 +2366,52 @@
     <row r="32">
       <c r="C32" s="4" t="inlineStr">
         <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr">
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>1 de 30</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>0 de 30</t>
         </is>
       </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="K32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>2 de 30</t>
+          <t>3 de 30</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="N32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="O32" s="4" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>1391.04</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>1455.04</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>3836.67</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>9808.539999999999</v>
+        <v>11263.58</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>8484.209999999999</v>
+        <v>8791.290000000001</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>665.16</v>
+        <v>3990.96</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8484.209999999999</v>
+        <v>8791.290000000001</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>1391.04</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1455.04</v>
+        <v>4780.84</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>3836.67</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>11263.58</v>
+        <v>14896.46</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>489.11</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>835.22</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>8791.290000000001</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>259.2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>298.8</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3990.96</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>231.88</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
     <row r="32">
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2411,17 +2411,17 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>3 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
         <is>
-          <t>1 de 30</t>
+          <t>0 de 30</t>
         </is>
       </c>
       <c r="O32" s="4" t="inlineStr">
@@ -2466,9 +2466,9 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>noviembre</t>
+          <t>diciembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>183.17</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>183.17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>489.11</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>489.11</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>253.44</v>
+        <v>633.6</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>633.6</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -2630,13 +2630,13 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>655.34</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>655.34</v>
+        <v>86.5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>831.1799999999999</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>831.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1284.64</v>
+        <v>1463.58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1463.58</v>
+        <v>1382.33</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1382.33</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>2407.18</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2407.18</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -2981,16 +2981,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>556.8099999999999</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>835.22</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>835.22</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -3011,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>89.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4413.66</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>8791.290000000001</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8791.290000000001</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>0</v>
@@ -3062,13 +3062,13 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1837.88</v>
+        <v>565.25</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>565.25</v>
+        <v>253.44</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>2868.69</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2868.69</v>
+        <v>1391.04</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1391.04</v>
+        <v>4780.84</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4780.84</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
     </row>
     <row r="32">
       <c r="C32" s="6" t="n">
-        <v>7536.18</v>
+        <v>9784.639999999999</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>9784.639999999999</v>
+        <v>3836.67</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>3836.67</v>
+        <v>14896.46</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>14896.46</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -2466,10 +2466,10 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>noviembre</t>
+          <t>diciembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>diciembre</t>
+          <t>enero</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>183.17</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>489.11</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>489.11</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>253.44</v>
+        <v>633.6</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>633.6</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>655.34</v>
+        <v>86.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>831.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1463.58</v>
+        <v>1382.33</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1382.33</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2407.18</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -2981,13 +2981,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>556.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>835.22</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>835.22</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>89.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>8791.290000000001</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>8791.290000000001</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -3062,13 +3062,13 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>565.25</v>
+        <v>253.44</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>96.37</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2868.69</v>
+        <v>1391.04</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1391.04</v>
+        <v>4780.84</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>4780.84</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="32">
       <c r="C32" s="6" t="n">
-        <v>9784.639999999999</v>
+        <v>3836.67</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>3836.67</v>
+        <v>14896.46</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>14896.46</v>
+        <v>96.37</v>
       </c>
       <c r="F32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>172.99</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -3071,7 +3071,7 @@
         <v>96.37</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>172.99</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>96.37</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0</v>
+        <v>172.99</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>33.53</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>0 de 30</t>
+          <t>1 de 30</t>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>33.53</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>96.37</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>172.99</v>
+        <v>206.52</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ANDRADE ZAMBRANO MARIUXI ELIZABETH</t>
+          <t>ARBIZACONSTRUC S.A.</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARAUZ PARRAGA MARIELA PATRICIA</t>
+          <t>DELGADO COPPIANO JORGE RODOLFO</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARBIZACONSTRUC S.A.</t>
+          <t>DELGADO LOOR JORGE ARTURO</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -751,7 +751,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BAESCORP S.A.S.</t>
+          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DELGADO COPPIANO JORGE RODOLFO</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DELGADO LOOR JORGE ARTURO</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DISALME CIA. LTDA.</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>33.53</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>172.99</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>33.53</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1771,14 +1771,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>172.99</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1944,504 +1944,84 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>VERA ARCE MARIA ISABEL</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>1 de 30</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="G32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="H32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="K32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="L32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="M32" s="4" t="inlineStr">
-        <is>
-          <t>1 de 30</t>
-        </is>
-      </c>
-      <c r="N32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="O32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="P32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="Q32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
-        </is>
-      </c>
-      <c r="R32" s="4" t="inlineStr">
-        <is>
-          <t>0 de 30</t>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>1 de 23</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>1 de 23</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2518,11 +2098,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ANDRADE ZAMBRANO MARIUXI ELIZABETH</t>
+          <t>ARBIZACONSTRUC S.A.</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>633.6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -2545,14 +2125,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARAUZ PARRAGA MARIELA PATRICIA</t>
+          <t>DELGADO COPPIANO JORGE RODOLFO</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>489.11</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -2572,11 +2152,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARBIZACONSTRUC S.A.</t>
+          <t>DELGADO LOOR JORGE ARTURO</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>633.6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -2599,7 +2179,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -2626,11 +2206,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -2653,7 +2233,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -2680,7 +2260,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BAESCORP S.A.S.</t>
+          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -2707,11 +2287,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>1382.33</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -2734,7 +2314,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DELGADO COPPIANO JORGE RODOLFO</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -2761,7 +2341,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DELGADO LOOR JORGE ARTURO</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -2788,20 +2368,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DISALME CIA. LTDA.</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>835.22</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>33.53</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -2815,11 +2395,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -2842,14 +2422,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>PAREDES ORTIZ MARIA INES</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>8791.290000000001</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2869,20 +2449,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>96.37</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>172.99</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2896,11 +2476,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1382.33</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -2923,14 +2503,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>ROCA REYNA PAUL DAVID</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>1391.04</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>4780.84</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -2950,7 +2530,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -2977,20 +2557,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>835.22</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>33.53</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -3004,11 +2584,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>89.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -3031,14 +2611,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>8791.290000000001</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -3058,20 +2638,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>96.37</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>172.99</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>0</v>
@@ -3085,7 +2665,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -3112,14 +2692,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1391.04</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>4780.84</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3132,208 +2712,19 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>VERA ARCE MARIA ISABEL</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="6" t="n">
-        <v>3836.67</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>14896.46</v>
-      </c>
-      <c r="E32" s="6" t="n">
+      <c r="C25" s="6" t="n">
+        <v>3750.17</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>14407.35</v>
+      </c>
+      <c r="E25" s="6" t="n">
         <v>96.37</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F25" s="6" t="n">
         <v>206.52</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G25" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/LOZANO MOLINA TITO.xlsx
+++ b/data/LOZANO MOLINA TITO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="49" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1164,864 +1164,84 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>33.53</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>172.99</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ROCA REYNA PAUL DAVID</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>VERA ARCE MARIA ISABEL</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>1 de 23</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="L25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>1 de 23</t>
-        </is>
-      </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="R25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="P12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
         </is>
       </c>
     </row>
@@ -2036,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,11 +1265,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="49" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2206,7 +1426,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -2233,7 +1453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
+          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -2260,7 +1480,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -2287,11 +1507,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1382.33</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -2314,7 +1534,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -2341,7 +1561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>VERA ARCE MARIA ISABEL</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -2361,370 +1581,19 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>835.22</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>33.53</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>89.76000000000001</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>8791.290000000001</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>253.44</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>96.37</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>172.99</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>REYES AGUILERA JESSICA ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ROCA REYNA PAUL DAVID</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>1391.04</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>4780.84</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SUMBA GARCIA MARCOS ANTONIO</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>VERA ARCE MARIA ISABEL</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LOZANO MOLINA TITO</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="6" t="n">
-        <v>3750.17</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>14407.35</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>96.37</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>206.52</v>
-      </c>
-      <c r="G25" s="6" t="n">
+      <c r="C12" s="6" t="n">
+        <v>633.6</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>0</v>
       </c>
     </row>
